--- a/documents/Time sheet IMC.xlsx
+++ b/documents/Time sheet IMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\askes\OneDrive\Skrivebord\EyeTracking_Mihaela\EyeTrackingStudy\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2FCB91-5962-4999-9FF0-710817BF7628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40D1EC3-1289-4449-B950-28629F3E0957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A6:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,12 +525,20 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5">
+        <v>44301</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5">
+        <v>44301</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
@@ -644,7 +652,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="4">
         <f>SUM(B11:B41)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Time sheet IMC.xlsx
+++ b/documents/Time sheet IMC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\askes\OneDrive\Skrivebord\EyeTracking_Mihaela\EyeTrackingStudy\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40D1EC3-1289-4449-B950-28629F3E0957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA171F88-E956-46FD-87D3-31642F7FA4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,16 +541,28 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5">
+        <v>44302</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5">
+        <v>44307</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5">
+        <v>44308</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
@@ -652,7 +664,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="4">
         <f>SUM(B11:B41)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Time sheet IMC.xlsx
+++ b/documents/Time sheet IMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\askes\OneDrive\Skrivebord\EyeTracking_Mihaela\EyeTrackingStudy\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA171F88-E956-46FD-87D3-31642F7FA4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3921C85E-FC9F-48A7-A14E-C5DB0E54CE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,7 +521,7 @@
         <v>44300</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
@@ -537,7 +537,7 @@
         <v>44301</v>
       </c>
       <c r="B14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
@@ -545,7 +545,7 @@
         <v>44302</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
@@ -561,7 +561,7 @@
         <v>44308</v>
       </c>
       <c r="B17" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
@@ -664,7 +664,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="4">
         <f>SUM(B11:B41)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Time sheet IMC.xlsx
+++ b/documents/Time sheet IMC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\askes\OneDrive\Skrivebord\EyeTracking_Mihaela\EyeTrackingStudy\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3921C85E-FC9F-48A7-A14E-C5DB0E54CE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52E20E1-C0BA-45B2-8DEA-D8F5A6796DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="170" yWindow="490" windowWidth="9620" windowHeight="9710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,12 +565,20 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5">
+        <v>44321</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5">
+        <v>44331</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -664,7 +672,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="4">
         <f>SUM(B11:B41)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Time sheet IMC.xlsx
+++ b/documents/Time sheet IMC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\askes\OneDrive\Skrivebord\EyeTracking_Mihaela\EyeTrackingStudy\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52E20E1-C0BA-45B2-8DEA-D8F5A6796DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80077F4-EBA3-4F95-9031-53CEB045BC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="170" yWindow="490" windowWidth="9620" windowHeight="9710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>041196-1109</t>
+  </si>
+  <si>
+    <t>15-May - 31-May</t>
   </si>
 </sst>
 </file>
@@ -148,16 +151,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2282991</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612941</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4353424</xdr:colOff>
+      <xdr:colOff>962524</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -186,8 +189,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3159291" y="0"/>
-          <a:ext cx="2070433" cy="800100"/>
+          <a:off x="612941" y="82550"/>
+          <a:ext cx="2070433" cy="774700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -464,14 +467,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="66.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
@@ -581,12 +584,20 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5">
+        <v>44331</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
@@ -672,7 +683,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="4">
         <f>SUM(B11:B41)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
